--- a/results/egg_style_confidence.xlsx
+++ b/results/egg_style_confidence.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hO/mnRB4NnLMweySYVX1YebFlpp93a7KW+ltXl2P7Cc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="b6kU8M9r6SBR8NRlr+3d6Vmx7NOBK/RF7hkqEbIA2Z4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6690" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="2247">
   <si>
     <t>Name</t>
   </si>
@@ -4321,6 +4321,9 @@
   </si>
   <si>
     <t>Mantidactylus aerumnalis</t>
+  </si>
+  <si>
+    <t>Mantidactylus albofrenatus</t>
   </si>
   <si>
     <t>Mantidactylus alutus</t>
@@ -6771,12 +6774,10 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6807,7 +6808,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6815,6 +6816,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -22644,14 +22648,14 @@
       </c>
     </row>
     <row r="1420" ht="15.75" customHeight="1">
-      <c r="A1420" s="2" t="s">
+      <c r="A1420" s="3" t="s">
         <v>1435</v>
       </c>
       <c r="B1420" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1420" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1421" ht="15.75" customHeight="1">
@@ -22659,10 +22663,10 @@
         <v>1436</v>
       </c>
       <c r="B1421" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1421" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1422" ht="15.75" customHeight="1">
@@ -22670,10 +22674,10 @@
         <v>1437</v>
       </c>
       <c r="B1422" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1422" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1423" ht="15.75" customHeight="1">
@@ -22681,10 +22685,10 @@
         <v>1438</v>
       </c>
       <c r="B1423" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1423" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1424" ht="15.75" customHeight="1">
@@ -22692,10 +22696,10 @@
         <v>1439</v>
       </c>
       <c r="B1424" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1424" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1425" ht="15.75" customHeight="1">
@@ -22706,7 +22710,7 @@
         <v>9</v>
       </c>
       <c r="C1425" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1426" ht="15.75" customHeight="1">
@@ -22717,7 +22721,7 @@
         <v>9</v>
       </c>
       <c r="C1426" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1427" ht="15.75" customHeight="1">
@@ -22728,7 +22732,7 @@
         <v>9</v>
       </c>
       <c r="C1427" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1428" ht="15.75" customHeight="1">
@@ -22736,7 +22740,7 @@
         <v>1443</v>
       </c>
       <c r="B1428" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1428" s="2" t="s">
         <v>24</v>
@@ -22747,10 +22751,10 @@
         <v>1444</v>
       </c>
       <c r="B1429" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1429" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1430" ht="15.75" customHeight="1">
@@ -22772,7 +22776,7 @@
         <v>9</v>
       </c>
       <c r="C1431" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1432" ht="15.75" customHeight="1">
@@ -22791,10 +22795,10 @@
         <v>1448</v>
       </c>
       <c r="B1433" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1433" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1434" ht="15.75" customHeight="1">
@@ -22802,10 +22806,10 @@
         <v>1449</v>
       </c>
       <c r="B1434" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1434" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1435" ht="15.75" customHeight="1">
@@ -22816,7 +22820,7 @@
         <v>9</v>
       </c>
       <c r="C1435" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1436" ht="15.75" customHeight="1">
@@ -22824,10 +22828,10 @@
         <v>1451</v>
       </c>
       <c r="B1436" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1436" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1437" ht="15.75" customHeight="1">
@@ -22835,10 +22839,10 @@
         <v>1452</v>
       </c>
       <c r="B1437" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1437" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1438" ht="15.75" customHeight="1">
@@ -22846,7 +22850,7 @@
         <v>1453</v>
       </c>
       <c r="B1438" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1438" s="2" t="s">
         <v>20</v>
@@ -22857,7 +22861,7 @@
         <v>1454</v>
       </c>
       <c r="B1439" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1439" s="2" t="s">
         <v>20</v>
@@ -22871,7 +22875,7 @@
         <v>9</v>
       </c>
       <c r="C1440" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1441" ht="15.75" customHeight="1">
@@ -22882,7 +22886,7 @@
         <v>9</v>
       </c>
       <c r="C1441" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1442" ht="15.75" customHeight="1">
@@ -22915,7 +22919,7 @@
         <v>9</v>
       </c>
       <c r="C1444" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1445" ht="15.75" customHeight="1">
@@ -22923,10 +22927,10 @@
         <v>1460</v>
       </c>
       <c r="B1445" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1445" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1446" ht="15.75" customHeight="1">
@@ -22934,10 +22938,10 @@
         <v>1461</v>
       </c>
       <c r="B1446" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1446" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1447" ht="15.75" customHeight="1">
@@ -22945,10 +22949,10 @@
         <v>1462</v>
       </c>
       <c r="B1447" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1447" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1448" ht="15.75" customHeight="1">
@@ -22959,7 +22963,7 @@
         <v>4</v>
       </c>
       <c r="C1448" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1449" ht="15.75" customHeight="1">
@@ -22967,10 +22971,10 @@
         <v>1464</v>
       </c>
       <c r="B1449" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1449" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1450" ht="15.75" customHeight="1">
@@ -22981,7 +22985,7 @@
         <v>9</v>
       </c>
       <c r="C1450" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1451" ht="15.75" customHeight="1">
@@ -22992,7 +22996,7 @@
         <v>9</v>
       </c>
       <c r="C1451" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1452" ht="15.75" customHeight="1">
@@ -23014,7 +23018,7 @@
         <v>9</v>
       </c>
       <c r="C1453" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1454" ht="15.75" customHeight="1">
@@ -23025,7 +23029,7 @@
         <v>9</v>
       </c>
       <c r="C1454" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1455" ht="15.75" customHeight="1">
@@ -23033,7 +23037,7 @@
         <v>1470</v>
       </c>
       <c r="B1455" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1455" s="2" t="s">
         <v>20</v>
@@ -23044,10 +23048,10 @@
         <v>1471</v>
       </c>
       <c r="B1456" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1456" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1457" ht="15.75" customHeight="1">
@@ -23058,7 +23062,7 @@
         <v>9</v>
       </c>
       <c r="C1457" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1458" ht="15.75" customHeight="1">
@@ -23066,10 +23070,10 @@
         <v>1473</v>
       </c>
       <c r="B1458" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1458" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1459" ht="15.75" customHeight="1">
@@ -23080,7 +23084,7 @@
         <v>4</v>
       </c>
       <c r="C1459" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1460" ht="15.75" customHeight="1">
@@ -23102,7 +23106,7 @@
         <v>4</v>
       </c>
       <c r="C1461" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1462" ht="15.75" customHeight="1">
@@ -23110,7 +23114,7 @@
         <v>1477</v>
       </c>
       <c r="B1462" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1462" s="2" t="s">
         <v>20</v>
@@ -23124,7 +23128,7 @@
         <v>9</v>
       </c>
       <c r="C1463" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1464" ht="15.75" customHeight="1">
@@ -23132,10 +23136,10 @@
         <v>1479</v>
       </c>
       <c r="B1464" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1464" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1465" ht="15.75" customHeight="1">
@@ -23143,10 +23147,10 @@
         <v>1480</v>
       </c>
       <c r="B1465" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1465" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1466" ht="15.75" customHeight="1">
@@ -23154,7 +23158,7 @@
         <v>1481</v>
       </c>
       <c r="B1466" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1466" s="2" t="s">
         <v>13</v>
@@ -23168,7 +23172,7 @@
         <v>4</v>
       </c>
       <c r="C1467" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1468" ht="15.75" customHeight="1">
@@ -23176,10 +23180,10 @@
         <v>1483</v>
       </c>
       <c r="B1468" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1468" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1469" ht="15.75" customHeight="1">
@@ -23190,7 +23194,7 @@
         <v>9</v>
       </c>
       <c r="C1469" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1470" ht="15.75" customHeight="1">
@@ -23198,10 +23202,10 @@
         <v>1485</v>
       </c>
       <c r="B1470" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1470" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1471" ht="15.75" customHeight="1">
@@ -23209,10 +23213,10 @@
         <v>1486</v>
       </c>
       <c r="B1471" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1471" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1472" ht="15.75" customHeight="1">
@@ -23223,7 +23227,7 @@
         <v>9</v>
       </c>
       <c r="C1472" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1473" ht="15.75" customHeight="1">
@@ -23231,10 +23235,10 @@
         <v>1488</v>
       </c>
       <c r="B1473" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1473" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1474" ht="15.75" customHeight="1">
@@ -23242,7 +23246,7 @@
         <v>1489</v>
       </c>
       <c r="B1474" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1474" s="2" t="s">
         <v>13</v>
@@ -23253,10 +23257,10 @@
         <v>1490</v>
       </c>
       <c r="B1475" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1475" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1476" ht="15.75" customHeight="1">
@@ -23264,10 +23268,10 @@
         <v>1491</v>
       </c>
       <c r="B1476" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1476" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1477" ht="15.75" customHeight="1">
@@ -23278,7 +23282,7 @@
         <v>9</v>
       </c>
       <c r="C1477" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1478" ht="15.75" customHeight="1">
@@ -23286,10 +23290,10 @@
         <v>1493</v>
       </c>
       <c r="B1478" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1478" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1479" ht="15.75" customHeight="1">
@@ -23297,10 +23301,10 @@
         <v>1494</v>
       </c>
       <c r="B1479" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1479" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1480" ht="15.75" customHeight="1">
@@ -23311,7 +23315,7 @@
         <v>9</v>
       </c>
       <c r="C1480" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1481" ht="15.75" customHeight="1">
@@ -23322,7 +23326,7 @@
         <v>9</v>
       </c>
       <c r="C1481" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1482" ht="15.75" customHeight="1">
@@ -23344,7 +23348,7 @@
         <v>9</v>
       </c>
       <c r="C1483" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1484" ht="15.75" customHeight="1">
@@ -23355,7 +23359,7 @@
         <v>9</v>
       </c>
       <c r="C1484" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1485" ht="15.75" customHeight="1">
@@ -23366,7 +23370,7 @@
         <v>9</v>
       </c>
       <c r="C1485" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1486" ht="15.75" customHeight="1">
@@ -23377,7 +23381,7 @@
         <v>9</v>
       </c>
       <c r="C1486" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1487" ht="15.75" customHeight="1">
@@ -23388,7 +23392,7 @@
         <v>9</v>
       </c>
       <c r="C1487" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1488" ht="15.75" customHeight="1">
@@ -23399,7 +23403,7 @@
         <v>9</v>
       </c>
       <c r="C1488" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1489" ht="15.75" customHeight="1">
@@ -23410,7 +23414,7 @@
         <v>9</v>
       </c>
       <c r="C1489" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1490" ht="15.75" customHeight="1">
@@ -23421,7 +23425,7 @@
         <v>9</v>
       </c>
       <c r="C1490" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1491" ht="15.75" customHeight="1">
@@ -23432,7 +23436,7 @@
         <v>9</v>
       </c>
       <c r="C1491" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1492" ht="15.75" customHeight="1">
@@ -23440,10 +23444,10 @@
         <v>1507</v>
       </c>
       <c r="B1492" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1492" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1493" ht="15.75" customHeight="1">
@@ -23451,10 +23455,10 @@
         <v>1508</v>
       </c>
       <c r="B1493" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1493" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1494" ht="15.75" customHeight="1">
@@ -23465,7 +23469,7 @@
         <v>9</v>
       </c>
       <c r="C1494" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1495" ht="15.75" customHeight="1">
@@ -23476,7 +23480,7 @@
         <v>9</v>
       </c>
       <c r="C1495" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1496" ht="15.75" customHeight="1">
@@ -23487,7 +23491,7 @@
         <v>9</v>
       </c>
       <c r="C1496" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1497" ht="15.75" customHeight="1">
@@ -23498,7 +23502,7 @@
         <v>9</v>
       </c>
       <c r="C1497" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1498" ht="15.75" customHeight="1">
@@ -23509,7 +23513,7 @@
         <v>9</v>
       </c>
       <c r="C1498" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1499" ht="15.75" customHeight="1">
@@ -23517,10 +23521,10 @@
         <v>1514</v>
       </c>
       <c r="B1499" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1499" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1500" ht="15.75" customHeight="1">
@@ -23528,10 +23532,10 @@
         <v>1515</v>
       </c>
       <c r="B1500" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1500" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1501" ht="15.75" customHeight="1">
@@ -23542,7 +23546,7 @@
         <v>9</v>
       </c>
       <c r="C1501" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1502" ht="15.75" customHeight="1">
@@ -23553,7 +23557,7 @@
         <v>9</v>
       </c>
       <c r="C1502" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1503" ht="15.75" customHeight="1">
@@ -23561,7 +23565,7 @@
         <v>1518</v>
       </c>
       <c r="B1503" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1503" s="2" t="s">
         <v>20</v>
@@ -23575,7 +23579,7 @@
         <v>4</v>
       </c>
       <c r="C1504" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1505" ht="15.75" customHeight="1">
@@ -23586,7 +23590,7 @@
         <v>4</v>
       </c>
       <c r="C1505" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1506" ht="15.75" customHeight="1">
@@ -23652,7 +23656,7 @@
         <v>4</v>
       </c>
       <c r="C1511" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1512" ht="15.75" customHeight="1">
@@ -23663,7 +23667,7 @@
         <v>4</v>
       </c>
       <c r="C1512" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1513" ht="15.75" customHeight="1">
@@ -23685,7 +23689,7 @@
         <v>4</v>
       </c>
       <c r="C1514" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1515" ht="15.75" customHeight="1">
@@ -23696,7 +23700,7 @@
         <v>4</v>
       </c>
       <c r="C1515" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1516" ht="15.75" customHeight="1">
@@ -23729,7 +23733,7 @@
         <v>4</v>
       </c>
       <c r="C1518" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1519" ht="15.75" customHeight="1">
@@ -23751,7 +23755,7 @@
         <v>4</v>
       </c>
       <c r="C1520" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1521" ht="15.75" customHeight="1">
@@ -23762,7 +23766,7 @@
         <v>4</v>
       </c>
       <c r="C1521" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1522" ht="15.75" customHeight="1">
@@ -23773,7 +23777,7 @@
         <v>4</v>
       </c>
       <c r="C1522" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1523" ht="15.75" customHeight="1">
@@ -23784,7 +23788,7 @@
         <v>4</v>
       </c>
       <c r="C1523" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1524" ht="15.75" customHeight="1">
@@ -23795,7 +23799,7 @@
         <v>4</v>
       </c>
       <c r="C1524" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1525" ht="15.75" customHeight="1">
@@ -23806,7 +23810,7 @@
         <v>4</v>
       </c>
       <c r="C1525" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1526" ht="15.75" customHeight="1">
@@ -23817,7 +23821,7 @@
         <v>4</v>
       </c>
       <c r="C1526" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1527" ht="15.75" customHeight="1">
@@ -23828,7 +23832,7 @@
         <v>4</v>
       </c>
       <c r="C1527" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1528" ht="15.75" customHeight="1">
@@ -23861,7 +23865,7 @@
         <v>4</v>
       </c>
       <c r="C1530" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1531" ht="15.75" customHeight="1">
@@ -23872,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="C1531" s="2" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1532" ht="15.75" customHeight="1">
@@ -23883,7 +23887,7 @@
         <v>4</v>
       </c>
       <c r="C1532" s="2" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1533" ht="15.75" customHeight="1">
@@ -23894,7 +23898,7 @@
         <v>4</v>
       </c>
       <c r="C1533" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1534" ht="15.75" customHeight="1">
@@ -23905,7 +23909,7 @@
         <v>4</v>
       </c>
       <c r="C1534" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1535" ht="15.75" customHeight="1">
@@ -23916,7 +23920,7 @@
         <v>4</v>
       </c>
       <c r="C1535" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1536" ht="15.75" customHeight="1">
@@ -23982,7 +23986,7 @@
         <v>4</v>
       </c>
       <c r="C1541" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1542" ht="15.75" customHeight="1">
@@ -24004,7 +24008,7 @@
         <v>4</v>
       </c>
       <c r="C1543" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1544" ht="15.75" customHeight="1">
@@ -24012,10 +24016,10 @@
         <v>1559</v>
       </c>
       <c r="B1544" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C1544" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1545" ht="15.75" customHeight="1">
@@ -24023,10 +24027,10 @@
         <v>1560</v>
       </c>
       <c r="B1545" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1545" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1546" ht="15.75" customHeight="1">
@@ -24037,7 +24041,7 @@
         <v>4</v>
       </c>
       <c r="C1546" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1547" ht="15.75" customHeight="1">
@@ -24070,7 +24074,7 @@
         <v>4</v>
       </c>
       <c r="C1549" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1550" ht="15.75" customHeight="1">
@@ -24081,7 +24085,7 @@
         <v>4</v>
       </c>
       <c r="C1550" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1551" ht="15.75" customHeight="1">
@@ -24092,7 +24096,7 @@
         <v>4</v>
       </c>
       <c r="C1551" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1552" ht="15.75" customHeight="1">
@@ -24114,7 +24118,7 @@
         <v>4</v>
       </c>
       <c r="C1553" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1554" ht="15.75" customHeight="1">
@@ -24147,7 +24151,7 @@
         <v>4</v>
       </c>
       <c r="C1556" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1557" ht="15.75" customHeight="1">
@@ -24158,7 +24162,7 @@
         <v>4</v>
       </c>
       <c r="C1557" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1558" ht="15.75" customHeight="1">
@@ -24202,7 +24206,7 @@
         <v>4</v>
       </c>
       <c r="C1561" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1562" ht="15.75" customHeight="1">
@@ -24213,7 +24217,7 @@
         <v>4</v>
       </c>
       <c r="C1562" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1563" ht="15.75" customHeight="1">
@@ -24224,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="C1563" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1564" ht="15.75" customHeight="1">
@@ -24235,7 +24239,7 @@
         <v>4</v>
       </c>
       <c r="C1564" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1565" ht="15.75" customHeight="1">
@@ -24243,10 +24247,10 @@
         <v>1580</v>
       </c>
       <c r="B1565" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1565" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1566" ht="15.75" customHeight="1">
@@ -24254,7 +24258,7 @@
         <v>1581</v>
       </c>
       <c r="B1566" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1566" s="2" t="s">
         <v>20</v>
@@ -24268,7 +24272,7 @@
         <v>4</v>
       </c>
       <c r="C1567" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1568" ht="15.75" customHeight="1">
@@ -24287,10 +24291,10 @@
         <v>1584</v>
       </c>
       <c r="B1569" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1569" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1570" ht="15.75" customHeight="1">
@@ -24298,10 +24302,10 @@
         <v>1585</v>
       </c>
       <c r="B1570" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1570" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1571" ht="15.75" customHeight="1">
@@ -24312,7 +24316,7 @@
         <v>4</v>
       </c>
       <c r="C1571" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1572" ht="15.75" customHeight="1">
@@ -24323,7 +24327,7 @@
         <v>4</v>
       </c>
       <c r="C1572" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1573" ht="15.75" customHeight="1">
@@ -24356,7 +24360,7 @@
         <v>4</v>
       </c>
       <c r="C1575" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1576" ht="15.75" customHeight="1">
@@ -24364,10 +24368,10 @@
         <v>1591</v>
       </c>
       <c r="B1576" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1576" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1577" ht="15.75" customHeight="1">
@@ -24375,10 +24379,10 @@
         <v>1592</v>
       </c>
       <c r="B1577" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1577" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1578" ht="15.75" customHeight="1">
@@ -24389,7 +24393,7 @@
         <v>4</v>
       </c>
       <c r="C1578" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1579" ht="15.75" customHeight="1">
@@ -24400,7 +24404,7 @@
         <v>4</v>
       </c>
       <c r="C1579" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1580" ht="15.75" customHeight="1">
@@ -24411,7 +24415,7 @@
         <v>4</v>
       </c>
       <c r="C1580" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1581" ht="15.75" customHeight="1">
@@ -24422,7 +24426,7 @@
         <v>4</v>
       </c>
       <c r="C1581" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1582" ht="15.75" customHeight="1">
@@ -24433,7 +24437,7 @@
         <v>4</v>
       </c>
       <c r="C1582" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1583" ht="15.75" customHeight="1">
@@ -24444,7 +24448,7 @@
         <v>4</v>
       </c>
       <c r="C1583" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1584" ht="15.75" customHeight="1">
@@ -24455,7 +24459,7 @@
         <v>4</v>
       </c>
       <c r="C1584" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1585" ht="15.75" customHeight="1">
@@ -24466,7 +24470,7 @@
         <v>4</v>
       </c>
       <c r="C1585" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1586" ht="15.75" customHeight="1">
@@ -24477,7 +24481,7 @@
         <v>4</v>
       </c>
       <c r="C1586" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1587" ht="15.75" customHeight="1">
@@ -24488,7 +24492,7 @@
         <v>4</v>
       </c>
       <c r="C1587" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1588" ht="15.75" customHeight="1">
@@ -24499,7 +24503,7 @@
         <v>4</v>
       </c>
       <c r="C1588" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1589" ht="15.75" customHeight="1">
@@ -24510,7 +24514,7 @@
         <v>4</v>
       </c>
       <c r="C1589" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1590" ht="15.75" customHeight="1">
@@ -24521,7 +24525,7 @@
         <v>4</v>
       </c>
       <c r="C1590" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1591" ht="15.75" customHeight="1">
@@ -24532,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="C1591" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1592" ht="15.75" customHeight="1">
@@ -24543,7 +24547,7 @@
         <v>4</v>
       </c>
       <c r="C1592" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1593" ht="15.75" customHeight="1">
@@ -24554,7 +24558,7 @@
         <v>4</v>
       </c>
       <c r="C1593" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1594" ht="15.75" customHeight="1">
@@ -24565,7 +24569,7 @@
         <v>4</v>
       </c>
       <c r="C1594" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1595" ht="15.75" customHeight="1">
@@ -24576,7 +24580,7 @@
         <v>4</v>
       </c>
       <c r="C1595" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1596" ht="15.75" customHeight="1">
@@ -24587,7 +24591,7 @@
         <v>4</v>
       </c>
       <c r="C1596" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1597" ht="15.75" customHeight="1">
@@ -24598,7 +24602,7 @@
         <v>4</v>
       </c>
       <c r="C1597" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1598" ht="15.75" customHeight="1">
@@ -24620,7 +24624,7 @@
         <v>4</v>
       </c>
       <c r="C1599" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1600" ht="15.75" customHeight="1">
@@ -24631,7 +24635,7 @@
         <v>4</v>
       </c>
       <c r="C1600" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1601" ht="15.75" customHeight="1">
@@ -24653,7 +24657,7 @@
         <v>4</v>
       </c>
       <c r="C1602" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1603" ht="15.75" customHeight="1">
@@ -24664,7 +24668,7 @@
         <v>4</v>
       </c>
       <c r="C1603" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1604" ht="15.75" customHeight="1">
@@ -24675,7 +24679,7 @@
         <v>4</v>
       </c>
       <c r="C1604" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1605" ht="15.75" customHeight="1">
@@ -24697,7 +24701,7 @@
         <v>4</v>
       </c>
       <c r="C1606" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1607" ht="15.75" customHeight="1">
@@ -24708,7 +24712,7 @@
         <v>4</v>
       </c>
       <c r="C1607" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1608" ht="15.75" customHeight="1">
@@ -24719,7 +24723,7 @@
         <v>4</v>
       </c>
       <c r="C1608" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1609" ht="15.75" customHeight="1">
@@ -24741,7 +24745,7 @@
         <v>4</v>
       </c>
       <c r="C1610" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1611" ht="15.75" customHeight="1">
@@ -24749,10 +24753,10 @@
         <v>1626</v>
       </c>
       <c r="B1611" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C1611" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1612" ht="15.75" customHeight="1">
@@ -24760,10 +24764,10 @@
         <v>1627</v>
       </c>
       <c r="B1612" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1612" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1613" ht="15.75" customHeight="1">
@@ -24774,7 +24778,7 @@
         <v>4</v>
       </c>
       <c r="C1613" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1614" ht="15.75" customHeight="1">
@@ -24796,7 +24800,7 @@
         <v>4</v>
       </c>
       <c r="C1615" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1616" ht="15.75" customHeight="1">
@@ -24818,7 +24822,7 @@
         <v>4</v>
       </c>
       <c r="C1617" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1618" ht="15.75" customHeight="1">
@@ -24829,7 +24833,7 @@
         <v>4</v>
       </c>
       <c r="C1618" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1619" ht="15.75" customHeight="1">
@@ -24840,7 +24844,7 @@
         <v>4</v>
       </c>
       <c r="C1619" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1620" ht="15.75" customHeight="1">
@@ -24848,10 +24852,10 @@
         <v>1635</v>
       </c>
       <c r="B1620" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1620" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1621" ht="15.75" customHeight="1">
@@ -24884,7 +24888,7 @@
         <v>9</v>
       </c>
       <c r="C1623" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1624" ht="15.75" customHeight="1">
@@ -24892,10 +24896,10 @@
         <v>1639</v>
       </c>
       <c r="B1624" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1624" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1625" ht="15.75" customHeight="1">
@@ -24917,7 +24921,7 @@
         <v>4</v>
       </c>
       <c r="C1626" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1627" ht="15.75" customHeight="1">
@@ -24928,7 +24932,7 @@
         <v>4</v>
       </c>
       <c r="C1627" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1628" ht="15.75" customHeight="1">
@@ -24936,10 +24940,10 @@
         <v>1643</v>
       </c>
       <c r="B1628" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1628" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1629" ht="15.75" customHeight="1">
@@ -24950,7 +24954,7 @@
         <v>9</v>
       </c>
       <c r="C1629" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1630" ht="15.75" customHeight="1">
@@ -24961,7 +24965,7 @@
         <v>9</v>
       </c>
       <c r="C1630" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1631" ht="15.75" customHeight="1">
@@ -24972,7 +24976,7 @@
         <v>9</v>
       </c>
       <c r="C1631" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1632" ht="15.75" customHeight="1">
@@ -24980,10 +24984,10 @@
         <v>1647</v>
       </c>
       <c r="B1632" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1632" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1633" ht="15.75" customHeight="1">
@@ -24991,10 +24995,10 @@
         <v>1648</v>
       </c>
       <c r="B1633" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1633" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1634" ht="15.75" customHeight="1">
@@ -25002,10 +25006,10 @@
         <v>1649</v>
       </c>
       <c r="B1634" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1634" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1635" ht="15.75" customHeight="1">
@@ -25013,10 +25017,10 @@
         <v>1650</v>
       </c>
       <c r="B1635" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1635" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1636" ht="15.75" customHeight="1">
@@ -25024,10 +25028,10 @@
         <v>1651</v>
       </c>
       <c r="B1636" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1636" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1637" ht="15.75" customHeight="1">
@@ -25035,10 +25039,10 @@
         <v>1652</v>
       </c>
       <c r="B1637" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1637" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1638" ht="15.75" customHeight="1">
@@ -25046,7 +25050,7 @@
         <v>1653</v>
       </c>
       <c r="B1638" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1638" s="2" t="s">
         <v>7</v>
@@ -25060,7 +25064,7 @@
         <v>4</v>
       </c>
       <c r="C1639" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1640" ht="15.75" customHeight="1">
@@ -25068,10 +25072,10 @@
         <v>1655</v>
       </c>
       <c r="B1640" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1640" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1641" ht="15.75" customHeight="1">
@@ -25082,7 +25086,7 @@
         <v>9</v>
       </c>
       <c r="C1641" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1642" ht="15.75" customHeight="1">
@@ -25093,7 +25097,7 @@
         <v>9</v>
       </c>
       <c r="C1642" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1643" ht="15.75" customHeight="1">
@@ -25104,7 +25108,7 @@
         <v>9</v>
       </c>
       <c r="C1643" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1644" ht="15.75" customHeight="1">
@@ -25112,10 +25116,10 @@
         <v>1659</v>
       </c>
       <c r="B1644" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1644" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1645" ht="15.75" customHeight="1">
@@ -25126,7 +25130,7 @@
         <v>4</v>
       </c>
       <c r="C1645" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1646" ht="15.75" customHeight="1">
@@ -25134,10 +25138,10 @@
         <v>1661</v>
       </c>
       <c r="B1646" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1646" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1647" ht="15.75" customHeight="1">
@@ -25148,7 +25152,7 @@
         <v>9</v>
       </c>
       <c r="C1647" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1648" ht="15.75" customHeight="1">
@@ -25156,10 +25160,10 @@
         <v>1663</v>
       </c>
       <c r="B1648" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1648" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1649" ht="15.75" customHeight="1">
@@ -25167,10 +25171,10 @@
         <v>1664</v>
       </c>
       <c r="B1649" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1649" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1650" ht="15.75" customHeight="1">
@@ -25178,7 +25182,7 @@
         <v>1665</v>
       </c>
       <c r="B1650" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1650" s="2" t="s">
         <v>20</v>
@@ -25200,10 +25204,10 @@
         <v>1667</v>
       </c>
       <c r="B1652" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1652" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1653" ht="15.75" customHeight="1">
@@ -25214,7 +25218,7 @@
         <v>9</v>
       </c>
       <c r="C1653" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1654" ht="15.75" customHeight="1">
@@ -25225,7 +25229,7 @@
         <v>9</v>
       </c>
       <c r="C1654" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1655" ht="15.75" customHeight="1">
@@ -25236,7 +25240,7 @@
         <v>9</v>
       </c>
       <c r="C1655" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1656" ht="15.75" customHeight="1">
@@ -25244,10 +25248,10 @@
         <v>1671</v>
       </c>
       <c r="B1656" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1656" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1657" ht="15.75" customHeight="1">
@@ -25255,7 +25259,7 @@
         <v>1672</v>
       </c>
       <c r="B1657" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1657" s="2" t="s">
         <v>7</v>
@@ -25280,7 +25284,7 @@
         <v>9</v>
       </c>
       <c r="C1659" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1660" ht="15.75" customHeight="1">
@@ -25288,10 +25292,10 @@
         <v>1675</v>
       </c>
       <c r="B1660" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1660" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1661" ht="15.75" customHeight="1">
@@ -25299,10 +25303,10 @@
         <v>1676</v>
       </c>
       <c r="B1661" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1661" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1662" ht="15.75" customHeight="1">
@@ -25310,10 +25314,10 @@
         <v>1677</v>
       </c>
       <c r="B1662" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1662" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1663" ht="15.75" customHeight="1">
@@ -25324,7 +25328,7 @@
         <v>4</v>
       </c>
       <c r="C1663" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1664" ht="15.75" customHeight="1">
@@ -25332,10 +25336,10 @@
         <v>1679</v>
       </c>
       <c r="B1664" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C1664" s="2" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1665" ht="15.75" customHeight="1">
@@ -25343,10 +25347,10 @@
         <v>1680</v>
       </c>
       <c r="B1665" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1665" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1666" ht="15.75" customHeight="1">
@@ -25354,10 +25358,10 @@
         <v>1681</v>
       </c>
       <c r="B1666" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1666" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1667" ht="15.75" customHeight="1">
@@ -25365,10 +25369,10 @@
         <v>1682</v>
       </c>
       <c r="B1667" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1667" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1668" ht="15.75" customHeight="1">
@@ -25379,7 +25383,7 @@
         <v>4</v>
       </c>
       <c r="C1668" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1669" ht="15.75" customHeight="1">
@@ -25390,7 +25394,7 @@
         <v>4</v>
       </c>
       <c r="C1669" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1670" ht="15.75" customHeight="1">
@@ -25398,10 +25402,10 @@
         <v>1685</v>
       </c>
       <c r="B1670" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1670" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1671" ht="15.75" customHeight="1">
@@ -25412,7 +25416,7 @@
         <v>9</v>
       </c>
       <c r="C1671" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1672" ht="15.75" customHeight="1">
@@ -25423,7 +25427,7 @@
         <v>9</v>
       </c>
       <c r="C1672" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1673" ht="15.75" customHeight="1">
@@ -25434,7 +25438,7 @@
         <v>9</v>
       </c>
       <c r="C1673" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1674" ht="15.75" customHeight="1">
@@ -25456,7 +25460,7 @@
         <v>9</v>
       </c>
       <c r="C1675" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1676" ht="15.75" customHeight="1">
@@ -25467,7 +25471,7 @@
         <v>9</v>
       </c>
       <c r="C1676" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1677" ht="15.75" customHeight="1">
@@ -25489,7 +25493,7 @@
         <v>9</v>
       </c>
       <c r="C1678" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1679" ht="15.75" customHeight="1">
@@ -25500,7 +25504,7 @@
         <v>9</v>
       </c>
       <c r="C1679" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1680" ht="15.75" customHeight="1">
@@ -25511,7 +25515,7 @@
         <v>9</v>
       </c>
       <c r="C1680" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1681" ht="15.75" customHeight="1">
@@ -25522,7 +25526,7 @@
         <v>9</v>
       </c>
       <c r="C1681" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1682" ht="15.75" customHeight="1">
@@ -25533,7 +25537,7 @@
         <v>9</v>
       </c>
       <c r="C1682" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1683" ht="15.75" customHeight="1">
@@ -25544,7 +25548,7 @@
         <v>9</v>
       </c>
       <c r="C1683" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1684" ht="15.75" customHeight="1">
@@ -25555,7 +25559,7 @@
         <v>9</v>
       </c>
       <c r="C1684" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1685" ht="15.75" customHeight="1">
@@ -25574,10 +25578,10 @@
         <v>1701</v>
       </c>
       <c r="B1686" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1686" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1687" ht="15.75" customHeight="1">
@@ -25585,7 +25589,7 @@
         <v>1702</v>
       </c>
       <c r="B1687" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1687" s="2" t="s">
         <v>20</v>
@@ -25596,10 +25600,10 @@
         <v>1703</v>
       </c>
       <c r="B1688" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1688" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1689" ht="15.75" customHeight="1">
@@ -25610,7 +25614,7 @@
         <v>4</v>
       </c>
       <c r="C1689" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1690" ht="15.75" customHeight="1">
@@ -25621,7 +25625,7 @@
         <v>4</v>
       </c>
       <c r="C1690" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1691" ht="15.75" customHeight="1">
@@ -25632,7 +25636,7 @@
         <v>4</v>
       </c>
       <c r="C1691" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1692" ht="15.75" customHeight="1">
@@ -25640,10 +25644,10 @@
         <v>1707</v>
       </c>
       <c r="B1692" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1692" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1693" ht="15.75" customHeight="1">
@@ -25651,7 +25655,7 @@
         <v>1708</v>
       </c>
       <c r="B1693" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1693" s="2" t="s">
         <v>20</v>
@@ -25665,7 +25669,7 @@
         <v>4</v>
       </c>
       <c r="C1694" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1695" ht="15.75" customHeight="1">
@@ -25676,7 +25680,7 @@
         <v>4</v>
       </c>
       <c r="C1695" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1696" ht="15.75" customHeight="1">
@@ -25684,10 +25688,10 @@
         <v>1711</v>
       </c>
       <c r="B1696" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C1696" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1697" ht="15.75" customHeight="1">
@@ -25695,10 +25699,10 @@
         <v>1712</v>
       </c>
       <c r="B1697" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1697" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1698" ht="15.75" customHeight="1">
@@ -25709,7 +25713,7 @@
         <v>9</v>
       </c>
       <c r="C1698" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1699" ht="15.75" customHeight="1">
@@ -25731,7 +25735,7 @@
         <v>9</v>
       </c>
       <c r="C1700" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1701" ht="15.75" customHeight="1">
@@ -25742,7 +25746,7 @@
         <v>9</v>
       </c>
       <c r="C1701" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1702" ht="15.75" customHeight="1">
@@ -25772,10 +25776,10 @@
         <v>1719</v>
       </c>
       <c r="B1704" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1704" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1705" ht="15.75" customHeight="1">
@@ -25786,7 +25790,7 @@
         <v>4</v>
       </c>
       <c r="C1705" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1706" ht="15.75" customHeight="1">
@@ -25808,7 +25812,7 @@
         <v>4</v>
       </c>
       <c r="C1707" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1708" ht="15.75" customHeight="1">
@@ -25816,10 +25820,10 @@
         <v>1723</v>
       </c>
       <c r="B1708" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1708" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1709" ht="15.75" customHeight="1">
@@ -25827,10 +25831,10 @@
         <v>1724</v>
       </c>
       <c r="B1709" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1709" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1710" ht="15.75" customHeight="1">
@@ -25838,7 +25842,7 @@
         <v>1725</v>
       </c>
       <c r="B1710" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1710" s="2" t="s">
         <v>5</v>
@@ -25874,7 +25878,7 @@
         <v>9</v>
       </c>
       <c r="C1713" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1714" ht="15.75" customHeight="1">
@@ -25885,7 +25889,7 @@
         <v>9</v>
       </c>
       <c r="C1714" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1715" ht="15.75" customHeight="1">
@@ -25896,7 +25900,7 @@
         <v>9</v>
       </c>
       <c r="C1715" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1716" ht="15.75" customHeight="1">
@@ -25907,7 +25911,7 @@
         <v>9</v>
       </c>
       <c r="C1716" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1717" ht="15.75" customHeight="1">
@@ -25918,7 +25922,7 @@
         <v>9</v>
       </c>
       <c r="C1717" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1718" ht="15.75" customHeight="1">
@@ -25929,7 +25933,7 @@
         <v>9</v>
       </c>
       <c r="C1718" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1719" ht="15.75" customHeight="1">
@@ -25940,7 +25944,7 @@
         <v>9</v>
       </c>
       <c r="C1719" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1720" ht="15.75" customHeight="1">
@@ -25951,7 +25955,7 @@
         <v>9</v>
       </c>
       <c r="C1720" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1721" ht="15.75" customHeight="1">
@@ -25970,10 +25974,10 @@
         <v>1737</v>
       </c>
       <c r="B1722" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1722" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1723" ht="15.75" customHeight="1">
@@ -25984,7 +25988,7 @@
         <v>4</v>
       </c>
       <c r="C1723" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1724" ht="15.75" customHeight="1">
@@ -26006,7 +26010,7 @@
         <v>4</v>
       </c>
       <c r="C1725" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1726" ht="15.75" customHeight="1">
@@ -26028,7 +26032,7 @@
         <v>4</v>
       </c>
       <c r="C1727" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1728" ht="15.75" customHeight="1">
@@ -26039,7 +26043,7 @@
         <v>4</v>
       </c>
       <c r="C1728" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1729" ht="15.75" customHeight="1">
@@ -26047,7 +26051,7 @@
         <v>1744</v>
       </c>
       <c r="B1729" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1729" s="2" t="s">
         <v>20</v>
@@ -26069,10 +26073,10 @@
         <v>1746</v>
       </c>
       <c r="B1731" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1731" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1732" ht="15.75" customHeight="1">
@@ -26083,7 +26087,7 @@
         <v>4</v>
       </c>
       <c r="C1732" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1733" ht="15.75" customHeight="1">
@@ -26105,7 +26109,7 @@
         <v>4</v>
       </c>
       <c r="C1734" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1735" ht="15.75" customHeight="1">
@@ -26116,7 +26120,7 @@
         <v>4</v>
       </c>
       <c r="C1735" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1736" ht="15.75" customHeight="1">
@@ -26149,7 +26153,7 @@
         <v>4</v>
       </c>
       <c r="C1738" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1739" ht="15.75" customHeight="1">
@@ -26171,7 +26175,7 @@
         <v>4</v>
       </c>
       <c r="C1740" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1741" ht="15.75" customHeight="1">
@@ -26182,7 +26186,7 @@
         <v>4</v>
       </c>
       <c r="C1741" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1742" ht="15.75" customHeight="1">
@@ -26193,7 +26197,7 @@
         <v>4</v>
       </c>
       <c r="C1742" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1743" ht="15.75" customHeight="1">
@@ -26204,7 +26208,7 @@
         <v>4</v>
       </c>
       <c r="C1743" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1744" ht="15.75" customHeight="1">
@@ -26226,7 +26230,7 @@
         <v>4</v>
       </c>
       <c r="C1745" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1746" ht="15.75" customHeight="1">
@@ -26248,7 +26252,7 @@
         <v>4</v>
       </c>
       <c r="C1747" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1748" ht="15.75" customHeight="1">
@@ -26259,7 +26263,7 @@
         <v>4</v>
       </c>
       <c r="C1748" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1749" ht="15.75" customHeight="1">
@@ -26270,7 +26274,7 @@
         <v>4</v>
       </c>
       <c r="C1749" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1750" ht="15.75" customHeight="1">
@@ -26289,7 +26293,7 @@
         <v>1766</v>
       </c>
       <c r="B1751" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1751" s="2" t="s">
         <v>20</v>
@@ -26314,7 +26318,7 @@
         <v>9</v>
       </c>
       <c r="C1753" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1754" ht="15.75" customHeight="1">
@@ -26325,7 +26329,7 @@
         <v>9</v>
       </c>
       <c r="C1754" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1755" ht="15.75" customHeight="1">
@@ -26336,7 +26340,7 @@
         <v>9</v>
       </c>
       <c r="C1755" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1756" ht="15.75" customHeight="1">
@@ -26347,7 +26351,7 @@
         <v>9</v>
       </c>
       <c r="C1756" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1757" ht="15.75" customHeight="1">
@@ -26355,7 +26359,7 @@
         <v>1772</v>
       </c>
       <c r="B1757" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1757" s="2" t="s">
         <v>20</v>
@@ -26366,10 +26370,10 @@
         <v>1773</v>
       </c>
       <c r="B1758" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1758" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1759" ht="15.75" customHeight="1">
@@ -26380,7 +26384,7 @@
         <v>9</v>
       </c>
       <c r="C1759" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1760" ht="15.75" customHeight="1">
@@ -26391,7 +26395,7 @@
         <v>9</v>
       </c>
       <c r="C1760" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1761" ht="15.75" customHeight="1">
@@ -26399,10 +26403,10 @@
         <v>1776</v>
       </c>
       <c r="B1761" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1761" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1762" ht="15.75" customHeight="1">
@@ -26410,10 +26414,10 @@
         <v>1777</v>
       </c>
       <c r="B1762" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1762" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1763" ht="15.75" customHeight="1">
@@ -26424,7 +26428,7 @@
         <v>9</v>
       </c>
       <c r="C1763" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1764" ht="15.75" customHeight="1">
@@ -26435,7 +26439,7 @@
         <v>9</v>
       </c>
       <c r="C1764" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1765" ht="15.75" customHeight="1">
@@ -26446,7 +26450,7 @@
         <v>9</v>
       </c>
       <c r="C1765" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1766" ht="15.75" customHeight="1">
@@ -26465,7 +26469,7 @@
         <v>1782</v>
       </c>
       <c r="B1767" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1767" s="2" t="s">
         <v>20</v>
@@ -26498,10 +26502,10 @@
         <v>1785</v>
       </c>
       <c r="B1770" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C1770" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1771" ht="15.75" customHeight="1">
@@ -26509,10 +26513,10 @@
         <v>1786</v>
       </c>
       <c r="B1771" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1771" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1772" ht="15.75" customHeight="1">
@@ -26520,7 +26524,7 @@
         <v>1787</v>
       </c>
       <c r="B1772" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1772" s="2" t="s">
         <v>24</v>
@@ -26531,7 +26535,7 @@
         <v>1788</v>
       </c>
       <c r="B1773" s="2" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C1773" s="2" t="s">
         <v>24</v>
@@ -26545,7 +26549,7 @@
         <v>336</v>
       </c>
       <c r="C1774" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1775" ht="15.75" customHeight="1">
@@ -26553,10 +26557,10 @@
         <v>1790</v>
       </c>
       <c r="B1775" s="2" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="C1775" s="2" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1776" ht="15.75" customHeight="1">
@@ -26564,10 +26568,10 @@
         <v>1791</v>
       </c>
       <c r="B1776" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1776" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1777" ht="15.75" customHeight="1">
@@ -26589,7 +26593,7 @@
         <v>9</v>
       </c>
       <c r="C1778" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1779" ht="15.75" customHeight="1">
@@ -26597,10 +26601,10 @@
         <v>1794</v>
       </c>
       <c r="B1779" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1779" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1780" ht="15.75" customHeight="1">
@@ -26608,10 +26612,10 @@
         <v>1795</v>
       </c>
       <c r="B1780" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C1780" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1781" ht="15.75" customHeight="1">
@@ -26622,7 +26626,7 @@
         <v>4</v>
       </c>
       <c r="C1781" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1782" ht="15.75" customHeight="1">
@@ -26652,7 +26656,7 @@
         <v>1799</v>
       </c>
       <c r="B1784" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1784" s="2" t="s">
         <v>7</v>
@@ -26677,7 +26681,7 @@
         <v>9</v>
       </c>
       <c r="C1786" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1787" ht="15.75" customHeight="1">
@@ -26688,7 +26692,7 @@
         <v>9</v>
       </c>
       <c r="C1787" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1788" ht="15.75" customHeight="1">
@@ -26699,7 +26703,7 @@
         <v>9</v>
       </c>
       <c r="C1788" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1789" ht="15.75" customHeight="1">
@@ -26721,7 +26725,7 @@
         <v>9</v>
       </c>
       <c r="C1790" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1791" ht="15.75" customHeight="1">
@@ -26729,10 +26733,10 @@
         <v>1806</v>
       </c>
       <c r="B1791" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1791" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1792" ht="15.75" customHeight="1">
@@ -26743,7 +26747,7 @@
         <v>4</v>
       </c>
       <c r="C1792" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1793" ht="15.75" customHeight="1">
@@ -26751,7 +26755,7 @@
         <v>1808</v>
       </c>
       <c r="B1793" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1793" s="2" t="s">
         <v>7</v>
@@ -26762,7 +26766,7 @@
         <v>1809</v>
       </c>
       <c r="B1794" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1794" s="2" t="s">
         <v>7</v>
@@ -26773,10 +26777,10 @@
         <v>1810</v>
       </c>
       <c r="B1795" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1795" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1796" ht="15.75" customHeight="1">
@@ -26784,10 +26788,10 @@
         <v>1811</v>
       </c>
       <c r="B1796" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1796" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1797" ht="15.75" customHeight="1">
@@ -26795,10 +26799,10 @@
         <v>1812</v>
       </c>
       <c r="B1797" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1797" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1798" ht="15.75" customHeight="1">
@@ -26806,10 +26810,10 @@
         <v>1813</v>
       </c>
       <c r="B1798" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1798" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1799" ht="15.75" customHeight="1">
@@ -26817,7 +26821,7 @@
         <v>1814</v>
       </c>
       <c r="B1799" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1799" s="2" t="s">
         <v>7</v>
@@ -26842,7 +26846,7 @@
         <v>9</v>
       </c>
       <c r="C1801" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1802" ht="15.75" customHeight="1">
@@ -26853,7 +26857,7 @@
         <v>9</v>
       </c>
       <c r="C1802" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1803" ht="15.75" customHeight="1">
@@ -26861,10 +26865,10 @@
         <v>1818</v>
       </c>
       <c r="B1803" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1803" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1804" ht="15.75" customHeight="1">
@@ -26886,7 +26890,7 @@
         <v>4</v>
       </c>
       <c r="C1805" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1806" ht="15.75" customHeight="1">
@@ -26894,10 +26898,10 @@
         <v>1821</v>
       </c>
       <c r="B1806" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1806" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1807" ht="15.75" customHeight="1">
@@ -26905,10 +26909,10 @@
         <v>1822</v>
       </c>
       <c r="B1807" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1807" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1808" ht="15.75" customHeight="1">
@@ -26919,7 +26923,7 @@
         <v>4</v>
       </c>
       <c r="C1808" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1809" ht="15.75" customHeight="1">
@@ -26927,10 +26931,10 @@
         <v>1824</v>
       </c>
       <c r="B1809" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1809" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1810" ht="15.75" customHeight="1">
@@ -26952,7 +26956,7 @@
         <v>9</v>
       </c>
       <c r="C1811" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1812" ht="15.75" customHeight="1">
@@ -26974,7 +26978,7 @@
         <v>9</v>
       </c>
       <c r="C1813" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1814" ht="15.75" customHeight="1">
@@ -26982,10 +26986,10 @@
         <v>1829</v>
       </c>
       <c r="B1814" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1814" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1815" ht="15.75" customHeight="1">
@@ -27004,10 +27008,10 @@
         <v>1831</v>
       </c>
       <c r="B1816" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1816" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1817" ht="15.75" customHeight="1">
@@ -27015,10 +27019,10 @@
         <v>1832</v>
       </c>
       <c r="B1817" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1817" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1818" ht="15.75" customHeight="1">
@@ -27037,10 +27041,10 @@
         <v>1834</v>
       </c>
       <c r="B1819" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1819" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1820" ht="15.75" customHeight="1">
@@ -27048,10 +27052,10 @@
         <v>1835</v>
       </c>
       <c r="B1820" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1820" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1821" ht="15.75" customHeight="1">
@@ -27081,10 +27085,10 @@
         <v>1838</v>
       </c>
       <c r="B1823" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1823" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1824" ht="15.75" customHeight="1">
@@ -27095,7 +27099,7 @@
         <v>9</v>
       </c>
       <c r="C1824" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1825" ht="15.75" customHeight="1">
@@ -27106,7 +27110,7 @@
         <v>9</v>
       </c>
       <c r="C1825" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1826" ht="15.75" customHeight="1">
@@ -27161,7 +27165,7 @@
         <v>9</v>
       </c>
       <c r="C1830" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1831" ht="15.75" customHeight="1">
@@ -27172,7 +27176,7 @@
         <v>9</v>
       </c>
       <c r="C1831" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1832" ht="15.75" customHeight="1">
@@ -27194,7 +27198,7 @@
         <v>9</v>
       </c>
       <c r="C1833" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1834" ht="15.75" customHeight="1">
@@ -27238,7 +27242,7 @@
         <v>9</v>
       </c>
       <c r="C1837" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1838" ht="15.75" customHeight="1">
@@ -27246,10 +27250,10 @@
         <v>1853</v>
       </c>
       <c r="B1838" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1838" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1839" ht="15.75" customHeight="1">
@@ -27257,10 +27261,10 @@
         <v>1854</v>
       </c>
       <c r="B1839" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1839" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1840" ht="15.75" customHeight="1">
@@ -27271,7 +27275,7 @@
         <v>9</v>
       </c>
       <c r="C1840" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1841" ht="15.75" customHeight="1">
@@ -27282,7 +27286,7 @@
         <v>9</v>
       </c>
       <c r="C1841" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1842" ht="15.75" customHeight="1">
@@ -27290,10 +27294,10 @@
         <v>1857</v>
       </c>
       <c r="B1842" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1842" s="2" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1843" ht="15.75" customHeight="1">
@@ -27301,10 +27305,10 @@
         <v>1858</v>
       </c>
       <c r="B1843" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1843" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1844" ht="15.75" customHeight="1">
@@ -27312,10 +27316,10 @@
         <v>1859</v>
       </c>
       <c r="B1844" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1844" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1845" ht="15.75" customHeight="1">
@@ -27323,10 +27327,10 @@
         <v>1860</v>
       </c>
       <c r="B1845" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1845" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1846" ht="15.75" customHeight="1">
@@ -27334,10 +27338,10 @@
         <v>1861</v>
       </c>
       <c r="B1846" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1846" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1847" ht="15.75" customHeight="1">
@@ -27348,7 +27352,7 @@
         <v>4</v>
       </c>
       <c r="C1847" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1848" ht="15.75" customHeight="1">
@@ -27356,10 +27360,10 @@
         <v>1863</v>
       </c>
       <c r="B1848" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1848" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1849" ht="15.75" customHeight="1">
@@ -27367,10 +27371,10 @@
         <v>1864</v>
       </c>
       <c r="B1849" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1849" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1850" ht="15.75" customHeight="1">
@@ -27411,10 +27415,10 @@
         <v>1868</v>
       </c>
       <c r="B1853" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1853" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1854" ht="15.75" customHeight="1">
@@ -27422,10 +27426,10 @@
         <v>1869</v>
       </c>
       <c r="B1854" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1854" s="2" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1855" ht="15.75" customHeight="1">
@@ -27433,10 +27437,10 @@
         <v>1870</v>
       </c>
       <c r="B1855" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1855" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1856" ht="15.75" customHeight="1">
@@ -27447,7 +27451,7 @@
         <v>9</v>
       </c>
       <c r="C1856" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1857" ht="15.75" customHeight="1">
@@ -27469,7 +27473,7 @@
         <v>9</v>
       </c>
       <c r="C1858" s="2" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1859" ht="15.75" customHeight="1">
@@ -27480,7 +27484,7 @@
         <v>9</v>
       </c>
       <c r="C1859" s="2" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1860" ht="15.75" customHeight="1">
@@ -27513,7 +27517,7 @@
         <v>9</v>
       </c>
       <c r="C1862" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1863" ht="15.75" customHeight="1">
@@ -27524,7 +27528,7 @@
         <v>9</v>
       </c>
       <c r="C1863" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1864" ht="15.75" customHeight="1">
@@ -27535,7 +27539,7 @@
         <v>9</v>
       </c>
       <c r="C1864" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1865" ht="15.75" customHeight="1">
@@ -27543,10 +27547,10 @@
         <v>1880</v>
       </c>
       <c r="B1865" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1865" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1866" ht="15.75" customHeight="1">
@@ -27554,10 +27558,10 @@
         <v>1881</v>
       </c>
       <c r="B1866" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1866" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1867" ht="15.75" customHeight="1">
@@ -27568,7 +27572,7 @@
         <v>9</v>
       </c>
       <c r="C1867" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1868" ht="15.75" customHeight="1">
@@ -27579,7 +27583,7 @@
         <v>9</v>
       </c>
       <c r="C1868" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1869" ht="15.75" customHeight="1">
@@ -27587,10 +27591,10 @@
         <v>1884</v>
       </c>
       <c r="B1869" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1869" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1870" ht="15.75" customHeight="1">
@@ -27601,7 +27605,7 @@
         <v>4</v>
       </c>
       <c r="C1870" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1871" ht="15.75" customHeight="1">
@@ -27612,7 +27616,7 @@
         <v>4</v>
       </c>
       <c r="C1871" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1872" ht="15.75" customHeight="1">
@@ -27620,10 +27624,10 @@
         <v>1887</v>
       </c>
       <c r="B1872" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1872" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1873" ht="15.75" customHeight="1">
@@ -27645,7 +27649,7 @@
         <v>9</v>
       </c>
       <c r="C1874" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1875" ht="15.75" customHeight="1">
@@ -27653,10 +27657,10 @@
         <v>1890</v>
       </c>
       <c r="B1875" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1875" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1876" ht="15.75" customHeight="1">
@@ -27664,7 +27668,7 @@
         <v>1891</v>
       </c>
       <c r="B1876" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1876" s="2" t="s">
         <v>20</v>
@@ -27689,7 +27693,7 @@
         <v>9</v>
       </c>
       <c r="C1878" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1879" ht="15.75" customHeight="1">
@@ -27700,7 +27704,7 @@
         <v>9</v>
       </c>
       <c r="C1879" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1880" ht="15.75" customHeight="1">
@@ -27711,7 +27715,7 @@
         <v>9</v>
       </c>
       <c r="C1880" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1881" ht="15.75" customHeight="1">
@@ -27722,7 +27726,7 @@
         <v>9</v>
       </c>
       <c r="C1881" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1882" ht="15.75" customHeight="1">
@@ -27744,7 +27748,7 @@
         <v>9</v>
       </c>
       <c r="C1883" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1884" ht="15.75" customHeight="1">
@@ -27755,7 +27759,7 @@
         <v>9</v>
       </c>
       <c r="C1884" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1885" ht="15.75" customHeight="1">
@@ -27766,7 +27770,7 @@
         <v>9</v>
       </c>
       <c r="C1885" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1886" ht="15.75" customHeight="1">
@@ -27777,7 +27781,7 @@
         <v>9</v>
       </c>
       <c r="C1886" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1887" ht="15.75" customHeight="1">
@@ -27788,7 +27792,7 @@
         <v>9</v>
       </c>
       <c r="C1887" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1888" ht="15.75" customHeight="1">
@@ -27796,10 +27800,10 @@
         <v>1903</v>
       </c>
       <c r="B1888" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1888" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1889" ht="15.75" customHeight="1">
@@ -27807,10 +27811,10 @@
         <v>1904</v>
       </c>
       <c r="B1889" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1889" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1890" ht="15.75" customHeight="1">
@@ -27821,7 +27825,7 @@
         <v>9</v>
       </c>
       <c r="C1890" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1891" ht="15.75" customHeight="1">
@@ -27832,7 +27836,7 @@
         <v>9</v>
       </c>
       <c r="C1891" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1892" ht="15.75" customHeight="1">
@@ -27843,7 +27847,7 @@
         <v>9</v>
       </c>
       <c r="C1892" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1893" ht="15.75" customHeight="1">
@@ -27854,7 +27858,7 @@
         <v>9</v>
       </c>
       <c r="C1893" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1894" ht="15.75" customHeight="1">
@@ -27865,7 +27869,7 @@
         <v>9</v>
       </c>
       <c r="C1894" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1895" ht="15.75" customHeight="1">
@@ -27876,7 +27880,7 @@
         <v>9</v>
       </c>
       <c r="C1895" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1896" ht="15.75" customHeight="1">
@@ -27887,7 +27891,7 @@
         <v>9</v>
       </c>
       <c r="C1896" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1897" ht="15.75" customHeight="1">
@@ -27898,7 +27902,7 @@
         <v>9</v>
       </c>
       <c r="C1897" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1898" ht="15.75" customHeight="1">
@@ -27906,10 +27910,10 @@
         <v>1913</v>
       </c>
       <c r="B1898" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1898" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1899" ht="15.75" customHeight="1">
@@ -27917,10 +27921,10 @@
         <v>1914</v>
       </c>
       <c r="B1899" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1899" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1900" ht="15.75" customHeight="1">
@@ -27931,7 +27935,7 @@
         <v>9</v>
       </c>
       <c r="C1900" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1901" ht="15.75" customHeight="1">
@@ -27942,7 +27946,7 @@
         <v>9</v>
       </c>
       <c r="C1901" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1902" ht="15.75" customHeight="1">
@@ -27953,7 +27957,7 @@
         <v>9</v>
       </c>
       <c r="C1902" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1903" ht="15.75" customHeight="1">
@@ -27964,7 +27968,7 @@
         <v>9</v>
       </c>
       <c r="C1903" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1904" ht="15.75" customHeight="1">
@@ -27975,7 +27979,7 @@
         <v>9</v>
       </c>
       <c r="C1904" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1905" ht="15.75" customHeight="1">
@@ -27983,10 +27987,10 @@
         <v>1920</v>
       </c>
       <c r="B1905" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1905" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1906" ht="15.75" customHeight="1">
@@ -27994,10 +27998,10 @@
         <v>1921</v>
       </c>
       <c r="B1906" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1906" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1907" ht="15.75" customHeight="1">
@@ -28008,7 +28012,7 @@
         <v>9</v>
       </c>
       <c r="C1907" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1908" ht="15.75" customHeight="1">
@@ -28019,7 +28023,7 @@
         <v>9</v>
       </c>
       <c r="C1908" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1909" ht="15.75" customHeight="1">
@@ -28030,7 +28034,7 @@
         <v>9</v>
       </c>
       <c r="C1909" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1910" ht="15.75" customHeight="1">
@@ -28041,7 +28045,7 @@
         <v>9</v>
       </c>
       <c r="C1910" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1911" ht="15.75" customHeight="1">
@@ -28049,10 +28053,10 @@
         <v>1926</v>
       </c>
       <c r="B1911" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1911" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1912" ht="15.75" customHeight="1">
@@ -28093,10 +28097,10 @@
         <v>1930</v>
       </c>
       <c r="B1915" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1915" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1916" ht="15.75" customHeight="1">
@@ -28107,7 +28111,7 @@
         <v>9</v>
       </c>
       <c r="C1916" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1917" ht="15.75" customHeight="1">
@@ -28118,7 +28122,7 @@
         <v>9</v>
       </c>
       <c r="C1917" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1918" ht="15.75" customHeight="1">
@@ -28140,7 +28144,7 @@
         <v>9</v>
       </c>
       <c r="C1919" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1920" ht="15.75" customHeight="1">
@@ -28151,7 +28155,7 @@
         <v>9</v>
       </c>
       <c r="C1920" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1921" ht="15.75" customHeight="1">
@@ -28162,7 +28166,7 @@
         <v>9</v>
       </c>
       <c r="C1921" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1922" ht="15.75" customHeight="1">
@@ -28170,10 +28174,10 @@
         <v>1937</v>
       </c>
       <c r="B1922" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1922" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1923" ht="15.75" customHeight="1">
@@ -28181,10 +28185,10 @@
         <v>1938</v>
       </c>
       <c r="B1923" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1923" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1924" ht="15.75" customHeight="1">
@@ -28195,7 +28199,7 @@
         <v>9</v>
       </c>
       <c r="C1924" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1925" ht="15.75" customHeight="1">
@@ -28206,7 +28210,7 @@
         <v>9</v>
       </c>
       <c r="C1925" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1926" ht="15.75" customHeight="1">
@@ -28217,7 +28221,7 @@
         <v>9</v>
       </c>
       <c r="C1926" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1927" ht="15.75" customHeight="1">
@@ -28225,10 +28229,10 @@
         <v>1942</v>
       </c>
       <c r="B1927" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1927" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1928" ht="15.75" customHeight="1">
@@ -28236,10 +28240,10 @@
         <v>1943</v>
       </c>
       <c r="B1928" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1928" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1929" ht="15.75" customHeight="1">
@@ -28250,7 +28254,7 @@
         <v>9</v>
       </c>
       <c r="C1929" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1930" ht="15.75" customHeight="1">
@@ -28261,7 +28265,7 @@
         <v>9</v>
       </c>
       <c r="C1930" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1931" ht="15.75" customHeight="1">
@@ -28272,7 +28276,7 @@
         <v>9</v>
       </c>
       <c r="C1931" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1932" ht="15.75" customHeight="1">
@@ -28283,7 +28287,7 @@
         <v>9</v>
       </c>
       <c r="C1932" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1933" ht="15.75" customHeight="1">
@@ -28294,7 +28298,7 @@
         <v>9</v>
       </c>
       <c r="C1933" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1934" ht="15.75" customHeight="1">
@@ -28316,7 +28320,7 @@
         <v>9</v>
       </c>
       <c r="C1935" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1936" ht="15.75" customHeight="1">
@@ -28324,10 +28328,10 @@
         <v>1951</v>
       </c>
       <c r="B1936" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C1936" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1937" ht="15.75" customHeight="1">
@@ -28335,10 +28339,10 @@
         <v>1952</v>
       </c>
       <c r="B1937" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C1937" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1938" ht="15.75" customHeight="1">
@@ -28371,7 +28375,7 @@
         <v>9</v>
       </c>
       <c r="C1940" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1941" ht="15.75" customHeight="1">
@@ -28382,7 +28386,7 @@
         <v>9</v>
       </c>
       <c r="C1941" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1942" ht="15.75" customHeight="1">
@@ -28393,7 +28397,7 @@
         <v>9</v>
       </c>
       <c r="C1942" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1943" ht="15.75" customHeight="1">
@@ -28404,7 +28408,7 @@
         <v>9</v>
       </c>
       <c r="C1943" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1944" ht="15.75" customHeight="1">
@@ -28415,7 +28419,7 @@
         <v>9</v>
       </c>
       <c r="C1944" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1945" ht="15.75" customHeight="1">
@@ -28426,7 +28430,7 @@
         <v>9</v>
       </c>
       <c r="C1945" s="2" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1946" ht="15.75" customHeight="1">
@@ -28437,7 +28441,7 @@
         <v>9</v>
       </c>
       <c r="C1946" s="2" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1947" ht="15.75" customHeight="1">
@@ -28470,7 +28474,7 @@
         <v>9</v>
       </c>
       <c r="C1949" s="2" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1950" ht="15.75" customHeight="1">
@@ -28481,7 +28485,7 @@
         <v>9</v>
       </c>
       <c r="C1950" s="2" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1951" ht="15.75" customHeight="1">
@@ -28489,10 +28493,10 @@
         <v>1966</v>
       </c>
       <c r="B1951" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1951" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1952" ht="15.75" customHeight="1">
@@ -28500,7 +28504,7 @@
         <v>1967</v>
       </c>
       <c r="B1952" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1952" s="2" t="s">
         <v>13</v>
@@ -28514,7 +28518,7 @@
         <v>9</v>
       </c>
       <c r="C1953" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1954" ht="15.75" customHeight="1">
@@ -28525,7 +28529,7 @@
         <v>9</v>
       </c>
       <c r="C1954" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1955" ht="15.75" customHeight="1">
@@ -28536,7 +28540,7 @@
         <v>9</v>
       </c>
       <c r="C1955" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1956" ht="15.75" customHeight="1">
@@ -28558,7 +28562,7 @@
         <v>9</v>
       </c>
       <c r="C1957" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1958" ht="15.75" customHeight="1">
@@ -28602,7 +28606,7 @@
         <v>9</v>
       </c>
       <c r="C1961" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1962" ht="15.75" customHeight="1">
@@ -28613,7 +28617,7 @@
         <v>9</v>
       </c>
       <c r="C1962" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1963" ht="15.75" customHeight="1">
@@ -28624,7 +28628,7 @@
         <v>9</v>
       </c>
       <c r="C1963" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1964" ht="15.75" customHeight="1">
@@ -28635,7 +28639,7 @@
         <v>9</v>
       </c>
       <c r="C1964" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1965" ht="15.75" customHeight="1">
@@ -28646,7 +28650,7 @@
         <v>9</v>
       </c>
       <c r="C1965" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1966" ht="15.75" customHeight="1">
@@ -28679,7 +28683,7 @@
         <v>9</v>
       </c>
       <c r="C1968" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1969" ht="15.75" customHeight="1">
@@ -28690,7 +28694,7 @@
         <v>9</v>
       </c>
       <c r="C1969" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1970" ht="15.75" customHeight="1">
@@ -28723,7 +28727,7 @@
         <v>9</v>
       </c>
       <c r="C1972" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1973" ht="15.75" customHeight="1">
@@ -28734,7 +28738,7 @@
         <v>9</v>
       </c>
       <c r="C1973" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1974" ht="15.75" customHeight="1">
@@ -28745,7 +28749,7 @@
         <v>9</v>
       </c>
       <c r="C1974" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1975" ht="15.75" customHeight="1">
@@ -28756,7 +28760,7 @@
         <v>9</v>
       </c>
       <c r="C1975" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1976" ht="15.75" customHeight="1">
@@ -28767,7 +28771,7 @@
         <v>9</v>
       </c>
       <c r="C1976" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1977" ht="15.75" customHeight="1">
@@ -28789,7 +28793,7 @@
         <v>9</v>
       </c>
       <c r="C1978" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1979" ht="15.75" customHeight="1">
@@ -28800,7 +28804,7 @@
         <v>9</v>
       </c>
       <c r="C1979" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1980" ht="15.75" customHeight="1">
@@ -28811,7 +28815,7 @@
         <v>9</v>
       </c>
       <c r="C1980" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1981" ht="15.75" customHeight="1">
@@ -28822,7 +28826,7 @@
         <v>9</v>
       </c>
       <c r="C1981" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1982" ht="15.75" customHeight="1">
@@ -28833,7 +28837,7 @@
         <v>9</v>
       </c>
       <c r="C1982" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1983" ht="15.75" customHeight="1">
@@ -28844,7 +28848,7 @@
         <v>9</v>
       </c>
       <c r="C1983" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1984" ht="15.75" customHeight="1">
@@ -28855,7 +28859,7 @@
         <v>9</v>
       </c>
       <c r="C1984" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1985" ht="15.75" customHeight="1">
@@ -28866,7 +28870,7 @@
         <v>9</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1986" ht="15.75" customHeight="1">
@@ -28874,10 +28878,10 @@
         <v>2001</v>
       </c>
       <c r="B1986" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1986" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1987" ht="15.75" customHeight="1">
@@ -28885,10 +28889,10 @@
         <v>2002</v>
       </c>
       <c r="B1987" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1987" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1988" ht="15.75" customHeight="1">
@@ -28910,7 +28914,7 @@
         <v>9</v>
       </c>
       <c r="C1989" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1990" ht="15.75" customHeight="1">
@@ -28921,7 +28925,7 @@
         <v>9</v>
       </c>
       <c r="C1990" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1991" ht="15.75" customHeight="1">
@@ -28932,7 +28936,7 @@
         <v>9</v>
       </c>
       <c r="C1991" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1992" ht="15.75" customHeight="1">
@@ -28943,7 +28947,7 @@
         <v>9</v>
       </c>
       <c r="C1992" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1993" ht="15.75" customHeight="1">
@@ -28954,7 +28958,7 @@
         <v>9</v>
       </c>
       <c r="C1993" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1994" ht="15.75" customHeight="1">
@@ -28965,7 +28969,7 @@
         <v>9</v>
       </c>
       <c r="C1994" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1995" ht="15.75" customHeight="1">
@@ -28998,7 +29002,7 @@
         <v>9</v>
       </c>
       <c r="C1997" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1998" ht="15.75" customHeight="1">
@@ -29009,7 +29013,7 @@
         <v>9</v>
       </c>
       <c r="C1998" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1999" ht="15.75" customHeight="1">
@@ -29020,7 +29024,7 @@
         <v>9</v>
       </c>
       <c r="C1999" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2000" ht="15.75" customHeight="1">
@@ -29031,7 +29035,7 @@
         <v>9</v>
       </c>
       <c r="C2000" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2001" ht="15.75" customHeight="1">
@@ -29042,7 +29046,7 @@
         <v>9</v>
       </c>
       <c r="C2001" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2002" ht="15.75" customHeight="1">
@@ -29053,7 +29057,7 @@
         <v>9</v>
       </c>
       <c r="C2002" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2003" ht="15.75" customHeight="1">
@@ -29064,7 +29068,7 @@
         <v>9</v>
       </c>
       <c r="C2003" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2004" ht="15.75" customHeight="1">
@@ -29075,7 +29079,7 @@
         <v>9</v>
       </c>
       <c r="C2004" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2005" ht="15.75" customHeight="1">
@@ -29097,7 +29101,7 @@
         <v>9</v>
       </c>
       <c r="C2006" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2007" ht="15.75" customHeight="1">
@@ -29108,7 +29112,7 @@
         <v>9</v>
       </c>
       <c r="C2007" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2008" ht="15.75" customHeight="1">
@@ -29141,7 +29145,7 @@
         <v>9</v>
       </c>
       <c r="C2010" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2011" ht="15.75" customHeight="1">
@@ -29152,7 +29156,7 @@
         <v>9</v>
       </c>
       <c r="C2011" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2012" ht="15.75" customHeight="1">
@@ -29163,7 +29167,7 @@
         <v>9</v>
       </c>
       <c r="C2012" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2013" ht="15.75" customHeight="1">
@@ -29174,7 +29178,7 @@
         <v>9</v>
       </c>
       <c r="C2013" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2014" ht="15.75" customHeight="1">
@@ -29185,7 +29189,7 @@
         <v>9</v>
       </c>
       <c r="C2014" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2015" ht="15.75" customHeight="1">
@@ -29196,7 +29200,7 @@
         <v>9</v>
       </c>
       <c r="C2015" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2016" ht="15.75" customHeight="1">
@@ -29207,7 +29211,7 @@
         <v>9</v>
       </c>
       <c r="C2016" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2017" ht="15.75" customHeight="1">
@@ -29218,7 +29222,7 @@
         <v>9</v>
       </c>
       <c r="C2017" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2018" ht="15.75" customHeight="1">
@@ -29226,10 +29230,10 @@
         <v>2033</v>
       </c>
       <c r="B2018" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2018" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2019" ht="15.75" customHeight="1">
@@ -29240,7 +29244,7 @@
         <v>4</v>
       </c>
       <c r="C2019" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2020" ht="15.75" customHeight="1">
@@ -29251,7 +29255,7 @@
         <v>4</v>
       </c>
       <c r="C2020" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2021" ht="15.75" customHeight="1">
@@ -29259,10 +29263,10 @@
         <v>2036</v>
       </c>
       <c r="B2021" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2021" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2022" ht="15.75" customHeight="1">
@@ -29281,10 +29285,10 @@
         <v>2038</v>
       </c>
       <c r="B2023" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2023" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2024" ht="15.75" customHeight="1">
@@ -29295,7 +29299,7 @@
         <v>4</v>
       </c>
       <c r="C2024" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2025" ht="15.75" customHeight="1">
@@ -29306,7 +29310,7 @@
         <v>4</v>
       </c>
       <c r="C2025" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2026" ht="15.75" customHeight="1">
@@ -29317,7 +29321,7 @@
         <v>4</v>
       </c>
       <c r="C2026" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2027" ht="15.75" customHeight="1">
@@ -29328,7 +29332,7 @@
         <v>4</v>
       </c>
       <c r="C2027" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2028" ht="15.75" customHeight="1">
@@ -29339,7 +29343,7 @@
         <v>4</v>
       </c>
       <c r="C2028" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2029" ht="15.75" customHeight="1">
@@ -29361,7 +29365,7 @@
         <v>4</v>
       </c>
       <c r="C2030" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2031" ht="15.75" customHeight="1">
@@ -29372,7 +29376,7 @@
         <v>4</v>
       </c>
       <c r="C2031" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2032" ht="15.75" customHeight="1">
@@ -29380,10 +29384,10 @@
         <v>2047</v>
       </c>
       <c r="B2032" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2032" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2033" ht="15.75" customHeight="1">
@@ -29391,10 +29395,10 @@
         <v>2048</v>
       </c>
       <c r="B2033" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2033" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2034" ht="15.75" customHeight="1">
@@ -29405,7 +29409,7 @@
         <v>4</v>
       </c>
       <c r="C2034" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2035" ht="15.75" customHeight="1">
@@ -29413,10 +29417,10 @@
         <v>2050</v>
       </c>
       <c r="B2035" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2035" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2036" ht="15.75" customHeight="1">
@@ -29424,10 +29428,10 @@
         <v>2051</v>
       </c>
       <c r="B2036" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2036" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2037" ht="15.75" customHeight="1">
@@ -29438,7 +29442,7 @@
         <v>4</v>
       </c>
       <c r="C2037" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2038" ht="15.75" customHeight="1">
@@ -29446,10 +29450,10 @@
         <v>2053</v>
       </c>
       <c r="B2038" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2038" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2039" ht="15.75" customHeight="1">
@@ -29460,7 +29464,7 @@
         <v>9</v>
       </c>
       <c r="C2039" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2040" ht="15.75" customHeight="1">
@@ -29468,10 +29472,10 @@
         <v>2055</v>
       </c>
       <c r="B2040" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2040" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2041" ht="15.75" customHeight="1">
@@ -29490,10 +29494,10 @@
         <v>2057</v>
       </c>
       <c r="B2042" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2042" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2043" ht="15.75" customHeight="1">
@@ -29501,7 +29505,7 @@
         <v>2058</v>
       </c>
       <c r="B2043" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2043" s="2" t="s">
         <v>20</v>
@@ -29515,7 +29519,7 @@
         <v>4</v>
       </c>
       <c r="C2044" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2045" ht="15.75" customHeight="1">
@@ -29526,7 +29530,7 @@
         <v>4</v>
       </c>
       <c r="C2045" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2046" ht="15.75" customHeight="1">
@@ -29537,7 +29541,7 @@
         <v>4</v>
       </c>
       <c r="C2046" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2047" ht="15.75" customHeight="1">
@@ -29548,7 +29552,7 @@
         <v>4</v>
       </c>
       <c r="C2047" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2048" ht="15.75" customHeight="1">
@@ -29559,7 +29563,7 @@
         <v>4</v>
       </c>
       <c r="C2048" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2049" ht="15.75" customHeight="1">
@@ -29570,7 +29574,7 @@
         <v>4</v>
       </c>
       <c r="C2049" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2050" ht="15.75" customHeight="1">
@@ -29603,7 +29607,7 @@
         <v>4</v>
       </c>
       <c r="C2052" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2053" ht="15.75" customHeight="1">
@@ -29614,7 +29618,7 @@
         <v>4</v>
       </c>
       <c r="C2053" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2054" ht="15.75" customHeight="1">
@@ -29625,7 +29629,7 @@
         <v>4</v>
       </c>
       <c r="C2054" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2055" ht="15.75" customHeight="1">
@@ -29658,7 +29662,7 @@
         <v>4</v>
       </c>
       <c r="C2057" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2058" ht="15.75" customHeight="1">
@@ -29669,7 +29673,7 @@
         <v>4</v>
       </c>
       <c r="C2058" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2059" ht="15.75" customHeight="1">
@@ -29680,7 +29684,7 @@
         <v>4</v>
       </c>
       <c r="C2059" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2060" ht="15.75" customHeight="1">
@@ -29691,7 +29695,7 @@
         <v>4</v>
       </c>
       <c r="C2060" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2061" ht="15.75" customHeight="1">
@@ -29702,7 +29706,7 @@
         <v>4</v>
       </c>
       <c r="C2061" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2062" ht="15.75" customHeight="1">
@@ -29724,7 +29728,7 @@
         <v>4</v>
       </c>
       <c r="C2063" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2064" ht="15.75" customHeight="1">
@@ -29735,7 +29739,7 @@
         <v>4</v>
       </c>
       <c r="C2064" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2065" ht="15.75" customHeight="1">
@@ -29746,7 +29750,7 @@
         <v>4</v>
       </c>
       <c r="C2065" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2066" ht="15.75" customHeight="1">
@@ -29757,7 +29761,7 @@
         <v>4</v>
       </c>
       <c r="C2066" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2067" ht="15.75" customHeight="1">
@@ -29779,7 +29783,7 @@
         <v>4</v>
       </c>
       <c r="C2068" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2069" ht="15.75" customHeight="1">
@@ -29790,7 +29794,7 @@
         <v>4</v>
       </c>
       <c r="C2069" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2070" ht="15.75" customHeight="1">
@@ -29812,7 +29816,7 @@
         <v>4</v>
       </c>
       <c r="C2071" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2072" ht="15.75" customHeight="1">
@@ -29823,7 +29827,7 @@
         <v>4</v>
       </c>
       <c r="C2072" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2073" ht="15.75" customHeight="1">
@@ -29834,7 +29838,7 @@
         <v>4</v>
       </c>
       <c r="C2073" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2074" ht="15.75" customHeight="1">
@@ -29845,7 +29849,7 @@
         <v>4</v>
       </c>
       <c r="C2074" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2075" ht="15.75" customHeight="1">
@@ -29856,7 +29860,7 @@
         <v>4</v>
       </c>
       <c r="C2075" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2076" ht="15.75" customHeight="1">
@@ -29878,7 +29882,7 @@
         <v>4</v>
       </c>
       <c r="C2077" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2078" ht="15.75" customHeight="1">
@@ -29889,7 +29893,7 @@
         <v>4</v>
       </c>
       <c r="C2078" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2079" ht="15.75" customHeight="1">
@@ -29900,7 +29904,7 @@
         <v>4</v>
       </c>
       <c r="C2079" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2080" ht="15.75" customHeight="1">
@@ -29922,7 +29926,7 @@
         <v>4</v>
       </c>
       <c r="C2081" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2082" ht="15.75" customHeight="1">
@@ -29933,7 +29937,7 @@
         <v>4</v>
       </c>
       <c r="C2082" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2083" ht="15.75" customHeight="1">
@@ -29955,7 +29959,7 @@
         <v>4</v>
       </c>
       <c r="C2084" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2085" ht="15.75" customHeight="1">
@@ -29966,7 +29970,7 @@
         <v>4</v>
       </c>
       <c r="C2085" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2086" ht="15.75" customHeight="1">
@@ -29977,7 +29981,7 @@
         <v>4</v>
       </c>
       <c r="C2086" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2087" ht="15.75" customHeight="1">
@@ -29988,7 +29992,7 @@
         <v>4</v>
       </c>
       <c r="C2087" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2088" ht="15.75" customHeight="1">
@@ -30010,7 +30014,7 @@
         <v>4</v>
       </c>
       <c r="C2089" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2090" ht="15.75" customHeight="1">
@@ -30021,7 +30025,7 @@
         <v>4</v>
       </c>
       <c r="C2090" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2091" ht="15.75" customHeight="1">
@@ -30054,7 +30058,7 @@
         <v>4</v>
       </c>
       <c r="C2093" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2094" ht="15.75" customHeight="1">
@@ -30065,7 +30069,7 @@
         <v>4</v>
       </c>
       <c r="C2094" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2095" ht="15.75" customHeight="1">
@@ -30073,10 +30077,10 @@
         <v>2110</v>
       </c>
       <c r="B2095" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2095" s="2" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2096" ht="15.75" customHeight="1">
@@ -30084,10 +30088,10 @@
         <v>2111</v>
       </c>
       <c r="B2096" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2096" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2097" ht="15.75" customHeight="1">
@@ -30098,7 +30102,7 @@
         <v>4</v>
       </c>
       <c r="C2097" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2098" ht="15.75" customHeight="1">
@@ -30109,7 +30113,7 @@
         <v>4</v>
       </c>
       <c r="C2098" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2099" ht="15.75" customHeight="1">
@@ -30120,7 +30124,7 @@
         <v>4</v>
       </c>
       <c r="C2099" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2100" ht="15.75" customHeight="1">
@@ -30131,7 +30135,7 @@
         <v>4</v>
       </c>
       <c r="C2100" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2101" ht="15.75" customHeight="1">
@@ -30142,7 +30146,7 @@
         <v>4</v>
       </c>
       <c r="C2101" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2102" ht="15.75" customHeight="1">
@@ -30153,7 +30157,7 @@
         <v>4</v>
       </c>
       <c r="C2102" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2103" ht="15.75" customHeight="1">
@@ -30164,7 +30168,7 @@
         <v>4</v>
       </c>
       <c r="C2103" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2104" ht="15.75" customHeight="1">
@@ -30175,7 +30179,7 @@
         <v>4</v>
       </c>
       <c r="C2104" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2105" ht="15.75" customHeight="1">
@@ -30186,7 +30190,7 @@
         <v>4</v>
       </c>
       <c r="C2105" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2106" ht="15.75" customHeight="1">
@@ -30197,7 +30201,7 @@
         <v>4</v>
       </c>
       <c r="C2106" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2107" ht="15.75" customHeight="1">
@@ -30208,7 +30212,7 @@
         <v>4</v>
       </c>
       <c r="C2107" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2108" ht="15.75" customHeight="1">
@@ -30219,7 +30223,7 @@
         <v>4</v>
       </c>
       <c r="C2108" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2109" ht="15.75" customHeight="1">
@@ -30227,10 +30231,10 @@
         <v>2124</v>
       </c>
       <c r="B2109" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2109" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2110" ht="15.75" customHeight="1">
@@ -30238,10 +30242,10 @@
         <v>2125</v>
       </c>
       <c r="B2110" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2110" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2111" ht="15.75" customHeight="1">
@@ -30263,7 +30267,7 @@
         <v>4</v>
       </c>
       <c r="C2112" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2113" ht="15.75" customHeight="1">
@@ -30271,10 +30275,10 @@
         <v>2128</v>
       </c>
       <c r="B2113" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2113" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2114" ht="15.75" customHeight="1">
@@ -30285,7 +30289,7 @@
         <v>9</v>
       </c>
       <c r="C2114" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2115" ht="15.75" customHeight="1">
@@ -30293,10 +30297,10 @@
         <v>2130</v>
       </c>
       <c r="B2115" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2115" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2116" ht="15.75" customHeight="1">
@@ -30307,7 +30311,7 @@
         <v>4</v>
       </c>
       <c r="C2116" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2117" ht="15.75" customHeight="1">
@@ -30318,7 +30322,7 @@
         <v>4</v>
       </c>
       <c r="C2117" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2118" ht="15.75" customHeight="1">
@@ -30326,10 +30330,10 @@
         <v>2133</v>
       </c>
       <c r="B2118" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2118" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2119" ht="15.75" customHeight="1">
@@ -30340,7 +30344,7 @@
         <v>9</v>
       </c>
       <c r="C2119" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2120" ht="15.75" customHeight="1">
@@ -30348,7 +30352,7 @@
         <v>2135</v>
       </c>
       <c r="B2120" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2120" s="2" t="s">
         <v>5</v>
@@ -30359,10 +30363,10 @@
         <v>2136</v>
       </c>
       <c r="B2121" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2121" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2122" ht="15.75" customHeight="1">
@@ -30370,10 +30374,10 @@
         <v>2137</v>
       </c>
       <c r="B2122" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2122" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2123" ht="15.75" customHeight="1">
@@ -30384,7 +30388,7 @@
         <v>4</v>
       </c>
       <c r="C2123" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2124" ht="15.75" customHeight="1">
@@ -30392,10 +30396,10 @@
         <v>2139</v>
       </c>
       <c r="B2124" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2124" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2125" ht="15.75" customHeight="1">
@@ -30403,10 +30407,10 @@
         <v>2140</v>
       </c>
       <c r="B2125" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2125" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2126" ht="15.75" customHeight="1">
@@ -30417,7 +30421,7 @@
         <v>4</v>
       </c>
       <c r="C2126" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2127" ht="15.75" customHeight="1">
@@ -30428,7 +30432,7 @@
         <v>4</v>
       </c>
       <c r="C2127" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2128" ht="15.75" customHeight="1">
@@ -30439,7 +30443,7 @@
         <v>4</v>
       </c>
       <c r="C2128" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2129" ht="15.75" customHeight="1">
@@ -30450,7 +30454,7 @@
         <v>4</v>
       </c>
       <c r="C2129" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2130" ht="15.75" customHeight="1">
@@ -30461,7 +30465,7 @@
         <v>4</v>
       </c>
       <c r="C2130" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2131" ht="15.75" customHeight="1">
@@ -30472,7 +30476,7 @@
         <v>4</v>
       </c>
       <c r="C2131" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2132" ht="15.75" customHeight="1">
@@ -30483,7 +30487,7 @@
         <v>4</v>
       </c>
       <c r="C2132" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2133" ht="15.75" customHeight="1">
@@ -30491,10 +30495,10 @@
         <v>2148</v>
       </c>
       <c r="B2133" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2133" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2134" ht="15.75" customHeight="1">
@@ -30502,10 +30506,10 @@
         <v>2149</v>
       </c>
       <c r="B2134" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2134" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2135" ht="15.75" customHeight="1">
@@ -30516,7 +30520,7 @@
         <v>4</v>
       </c>
       <c r="C2135" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2136" ht="15.75" customHeight="1">
@@ -30524,10 +30528,10 @@
         <v>2151</v>
       </c>
       <c r="B2136" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2136" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2137" ht="15.75" customHeight="1">
@@ -30538,7 +30542,7 @@
         <v>9</v>
       </c>
       <c r="C2137" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2138" ht="15.75" customHeight="1">
@@ -30560,7 +30564,7 @@
         <v>9</v>
       </c>
       <c r="C2139" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2140" ht="15.75" customHeight="1">
@@ -30571,7 +30575,7 @@
         <v>9</v>
       </c>
       <c r="C2140" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2141" ht="15.75" customHeight="1">
@@ -30579,10 +30583,10 @@
         <v>2156</v>
       </c>
       <c r="B2141" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C2141" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2142" ht="15.75" customHeight="1">
@@ -30590,10 +30594,10 @@
         <v>2157</v>
       </c>
       <c r="B2142" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C2142" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2143" ht="15.75" customHeight="1">
@@ -30612,10 +30616,10 @@
         <v>2159</v>
       </c>
       <c r="B2144" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2144" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2145" ht="15.75" customHeight="1">
@@ -30626,7 +30630,7 @@
         <v>4</v>
       </c>
       <c r="C2145" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2146" ht="15.75" customHeight="1">
@@ -30637,7 +30641,7 @@
         <v>4</v>
       </c>
       <c r="C2146" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2147" ht="15.75" customHeight="1">
@@ -30648,7 +30652,7 @@
         <v>4</v>
       </c>
       <c r="C2147" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2148" ht="15.75" customHeight="1">
@@ -30670,7 +30674,7 @@
         <v>4</v>
       </c>
       <c r="C2149" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2150" ht="15.75" customHeight="1">
@@ -30692,7 +30696,7 @@
         <v>4</v>
       </c>
       <c r="C2151" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2152" ht="15.75" customHeight="1">
@@ -30700,10 +30704,10 @@
         <v>2167</v>
       </c>
       <c r="B2152" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2152" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2153" ht="15.75" customHeight="1">
@@ -30711,10 +30715,10 @@
         <v>2168</v>
       </c>
       <c r="B2153" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2153" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2154" ht="15.75" customHeight="1">
@@ -30722,10 +30726,10 @@
         <v>2169</v>
       </c>
       <c r="B2154" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2154" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2155" ht="15.75" customHeight="1">
@@ -30744,10 +30748,10 @@
         <v>2171</v>
       </c>
       <c r="B2156" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2156" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2157" ht="15.75" customHeight="1">
@@ -30755,10 +30759,10 @@
         <v>2172</v>
       </c>
       <c r="B2157" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2157" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2158" ht="15.75" customHeight="1">
@@ -30766,10 +30770,10 @@
         <v>2173</v>
       </c>
       <c r="B2158" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2158" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2159" ht="15.75" customHeight="1">
@@ -30780,7 +30784,7 @@
         <v>4</v>
       </c>
       <c r="C2159" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2160" ht="15.75" customHeight="1">
@@ -30802,7 +30806,7 @@
         <v>4</v>
       </c>
       <c r="C2161" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2162" ht="15.75" customHeight="1">
@@ -30810,10 +30814,10 @@
         <v>2177</v>
       </c>
       <c r="B2162" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2162" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2163" ht="15.75" customHeight="1">
@@ -30843,10 +30847,10 @@
         <v>2180</v>
       </c>
       <c r="B2165" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2165" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2166" ht="15.75" customHeight="1">
@@ -30857,7 +30861,7 @@
         <v>4</v>
       </c>
       <c r="C2166" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2167" ht="15.75" customHeight="1">
@@ -30868,7 +30872,7 @@
         <v>4</v>
       </c>
       <c r="C2167" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2168" ht="15.75" customHeight="1">
@@ -30879,7 +30883,7 @@
         <v>4</v>
       </c>
       <c r="C2168" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2169" ht="15.75" customHeight="1">
@@ -30890,7 +30894,7 @@
         <v>4</v>
       </c>
       <c r="C2169" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2170" ht="15.75" customHeight="1">
@@ -30901,7 +30905,7 @@
         <v>4</v>
       </c>
       <c r="C2170" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2171" ht="15.75" customHeight="1">
@@ -30912,7 +30916,7 @@
         <v>4</v>
       </c>
       <c r="C2171" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2172" ht="15.75" customHeight="1">
@@ -30967,7 +30971,7 @@
         <v>4</v>
       </c>
       <c r="C2176" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2177" ht="15.75" customHeight="1">
@@ -30978,7 +30982,7 @@
         <v>4</v>
       </c>
       <c r="C2177" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2178" ht="15.75" customHeight="1">
@@ -31011,7 +31015,7 @@
         <v>4</v>
       </c>
       <c r="C2180" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2181" ht="15.75" customHeight="1">
@@ -31022,7 +31026,7 @@
         <v>4</v>
       </c>
       <c r="C2181" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2182" ht="15.75" customHeight="1">
@@ -31033,7 +31037,7 @@
         <v>4</v>
       </c>
       <c r="C2182" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2183" ht="15.75" customHeight="1">
@@ -31044,7 +31048,7 @@
         <v>4</v>
       </c>
       <c r="C2183" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2184" ht="15.75" customHeight="1">
@@ -31055,7 +31059,7 @@
         <v>4</v>
       </c>
       <c r="C2184" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2185" ht="15.75" customHeight="1">
@@ -31066,7 +31070,7 @@
         <v>4</v>
       </c>
       <c r="C2185" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2186" ht="15.75" customHeight="1">
@@ -31077,7 +31081,7 @@
         <v>4</v>
       </c>
       <c r="C2186" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2187" ht="15.75" customHeight="1">
@@ -31088,7 +31092,7 @@
         <v>4</v>
       </c>
       <c r="C2187" s="2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2188" ht="15.75" customHeight="1">
@@ -31099,7 +31103,7 @@
         <v>4</v>
       </c>
       <c r="C2188" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2189" ht="15.75" customHeight="1">
@@ -31110,7 +31114,7 @@
         <v>4</v>
       </c>
       <c r="C2189" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2190" ht="15.75" customHeight="1">
@@ -31121,7 +31125,7 @@
         <v>4</v>
       </c>
       <c r="C2190" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2191" ht="15.75" customHeight="1">
@@ -31132,7 +31136,7 @@
         <v>4</v>
       </c>
       <c r="C2191" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2192" ht="15.75" customHeight="1">
@@ -31143,7 +31147,7 @@
         <v>4</v>
       </c>
       <c r="C2192" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2193" ht="15.75" customHeight="1">
@@ -31154,7 +31158,7 @@
         <v>4</v>
       </c>
       <c r="C2193" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2194" ht="15.75" customHeight="1">
@@ -31165,7 +31169,7 @@
         <v>4</v>
       </c>
       <c r="C2194" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2195" ht="15.75" customHeight="1">
@@ -31187,7 +31191,7 @@
         <v>4</v>
       </c>
       <c r="C2196" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2197" ht="15.75" customHeight="1">
@@ -31198,7 +31202,7 @@
         <v>4</v>
       </c>
       <c r="C2197" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2198" ht="15.75" customHeight="1">
@@ -31209,7 +31213,7 @@
         <v>4</v>
       </c>
       <c r="C2198" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2199" ht="15.75" customHeight="1">
@@ -31220,7 +31224,7 @@
         <v>4</v>
       </c>
       <c r="C2199" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2200" ht="15.75" customHeight="1">
@@ -31242,7 +31246,7 @@
         <v>4</v>
       </c>
       <c r="C2201" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2202" ht="15.75" customHeight="1">
@@ -31253,7 +31257,7 @@
         <v>4</v>
       </c>
       <c r="C2202" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2203" ht="15.75" customHeight="1">
@@ -31264,7 +31268,7 @@
         <v>4</v>
       </c>
       <c r="C2203" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2204" ht="15.75" customHeight="1">
@@ -31275,7 +31279,7 @@
         <v>4</v>
       </c>
       <c r="C2204" s="2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2205" ht="15.75" customHeight="1">
@@ -31286,7 +31290,7 @@
         <v>4</v>
       </c>
       <c r="C2205" s="2" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2206" ht="15.75" customHeight="1">
@@ -31297,7 +31301,7 @@
         <v>4</v>
       </c>
       <c r="C2206" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2207" ht="15.75" customHeight="1">
@@ -31330,7 +31334,7 @@
         <v>4</v>
       </c>
       <c r="C2209" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2210" ht="15.75" customHeight="1">
@@ -31338,10 +31342,10 @@
         <v>2225</v>
       </c>
       <c r="B2210" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2210" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2211" ht="15.75" customHeight="1">
@@ -31349,10 +31353,10 @@
         <v>2226</v>
       </c>
       <c r="B2211" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2211" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2212" ht="15.75" customHeight="1">
@@ -31360,10 +31364,10 @@
         <v>2227</v>
       </c>
       <c r="B2212" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C2212" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2213" ht="15.75" customHeight="1">
@@ -31382,10 +31386,10 @@
         <v>2229</v>
       </c>
       <c r="B2214" s="2" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C2214" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2215" ht="15.75" customHeight="1">
@@ -31396,7 +31400,7 @@
         <v>4</v>
       </c>
       <c r="C2215" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2216" ht="15.75" customHeight="1">
@@ -31407,7 +31411,7 @@
         <v>4</v>
       </c>
       <c r="C2216" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2217" ht="15.75" customHeight="1">
@@ -31429,7 +31433,7 @@
         <v>4</v>
       </c>
       <c r="C2218" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2219" ht="15.75" customHeight="1">
@@ -31440,7 +31444,7 @@
         <v>4</v>
       </c>
       <c r="C2219" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2220" ht="15.75" customHeight="1">
@@ -31459,10 +31463,10 @@
         <v>2236</v>
       </c>
       <c r="B2221" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2221" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2222" ht="15.75" customHeight="1">
@@ -31470,10 +31474,10 @@
         <v>2237</v>
       </c>
       <c r="B2222" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C2222" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2223" ht="15.75" customHeight="1">
@@ -31481,10 +31485,10 @@
         <v>2238</v>
       </c>
       <c r="B2223" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C2223" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2224" ht="15.75" customHeight="1">
@@ -31492,10 +31496,10 @@
         <v>2239</v>
       </c>
       <c r="B2224" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2224" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2225" ht="15.75" customHeight="1">
@@ -31503,10 +31507,10 @@
         <v>2240</v>
       </c>
       <c r="B2225" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2225" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2226" ht="15.75" customHeight="1">
@@ -31517,7 +31521,7 @@
         <v>9</v>
       </c>
       <c r="C2226" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2227" ht="15.75" customHeight="1">
@@ -31525,10 +31529,10 @@
         <v>2242</v>
       </c>
       <c r="B2227" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2227" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2228" ht="15.75" customHeight="1">
@@ -31536,10 +31540,10 @@
         <v>2243</v>
       </c>
       <c r="B2228" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2228" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2229" ht="15.75" customHeight="1">
@@ -31550,7 +31554,7 @@
         <v>9</v>
       </c>
       <c r="C2229" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2230" ht="15.75" customHeight="1">
@@ -31561,6 +31565,17 @@
         <v>9</v>
       </c>
       <c r="C2230" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2231" ht="15.75" customHeight="1">
+      <c r="A2231" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2231" s="2" t="s">
         <v>15</v>
       </c>
     </row>
